--- a/baser/analisi_variabili_debug.xlsx
+++ b/baser/analisi_variabili_debug.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="24">
   <si>
     <t>variabile</t>
   </si>
@@ -75,6 +75,27 @@
   </si>
   <si>
     <t>lastExecution</t>
+  </si>
+  <si>
+    <t>now</t>
+  </si>
+  <si>
+    <t>rtc.now()</t>
+  </si>
+  <si>
+    <t>quando si azzera</t>
+  </si>
+  <si>
+    <t>scritta</t>
+  </si>
+  <si>
+    <t>ctrlIrrigationStatus()</t>
+  </si>
+  <si>
+    <t>startTimeP1 = startTimeP1 + TimeSpan(freqP1*3600L);</t>
+  </si>
+  <si>
+    <t>lastExecution = now;</t>
   </si>
 </sst>
 </file>
@@ -415,10 +436,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F6"/>
+  <dimension ref="B2:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -432,7 +453,7 @@
     <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -449,7 +470,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
@@ -463,7 +484,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
@@ -480,7 +501,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
@@ -497,7 +518,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>16</v>
       </c>
@@ -512,6 +533,60 @@
       </c>
       <c r="F6" s="1">
         <v>0</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
